--- a/src/Web/static/reports/InvoiceTemplate1_persey.xlsx
+++ b/src/Web/static/reports/InvoiceTemplate1_persey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB62569-2B48-44CC-A947-7B1B00D6B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0421396F-4800-4FB3-ACCF-8A2938AE9039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="23040" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рахунок-фактура" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Постачальник</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Виписав(ла):  ________________  [[IssuedBy]]</t>
-  </si>
-  <si>
-    <t>[[Warning1]]</t>
   </si>
   <si>
     <t>[[FooterDetails]]</t>
@@ -565,21 +562,21 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="38.109375" customWidth="1"/>
+    <col min="3" max="3" width="38.1328125" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -591,7 +588,7 @@
       <c r="F1" s="20"/>
       <c r="G1" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -603,7 +600,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -615,7 +612,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -627,10 +624,10 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" ht="25.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -639,7 +636,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>11</v>
       </c>
@@ -650,12 +647,12 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="4" t="s">
@@ -671,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -692,35 +689,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="16" t="s">
         <v>23</v>
       </c>
@@ -729,9 +724,9 @@
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
     </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="13" customFormat="1" ht="100.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>

--- a/src/Web/static/reports/InvoiceTemplate1_persey.xlsx
+++ b/src/Web/static/reports/InvoiceTemplate1_persey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0421396F-4800-4FB3-ACCF-8A2938AE9039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44908C6-D278-4188-96EC-0167710E88CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рахунок-фактура" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>[[Totals.Amount]]</t>
   </si>
   <si>
-    <t>Виписав(ла):  ________________  [[IssuedBy]]</t>
-  </si>
-  <si>
     <t>[[FooterDetails]]</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>Рахунок на оплату № [[Number]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Виписав(ла):  _________________________________  [[IssuedBy]]</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -259,9 +259,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -559,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -580,81 +577,81 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="5" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="13.15" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.4">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="21"/>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="20"/>
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
@@ -672,10 +669,10 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
@@ -696,48 +693,45 @@
       <c r="D14" s="10"/>
       <c r="E14" s="8"/>
       <c r="F14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="16" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" spans="1:7" s="13" customFormat="1" ht="100.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="27" spans="1:7" s="13" customFormat="1" ht="100.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C24:G24"/>
+  <mergeCells count="8">
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="B12:C12"/>
